--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -762,13 +765,16 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -788,8 +794,8 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -797,16 +803,19 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -826,8 +835,8 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -835,11 +844,14 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,31 +946,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,13 +1044,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1054,26 +1080,29 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1092,11 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,26 +1179,29 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1178,8 +1214,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1187,31 +1223,34 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1225,23 +1264,26 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1260,22 +1302,25 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,23 +1387,26 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1374,26 +1425,29 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1412,11 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1602,26 +1671,29 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1640,11 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,23 +1756,26 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1716,54 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1829,11 +1915,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,20 +1959,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1988,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1981,11 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,14 +2094,14 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2019,11 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,19 +2164,22 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2092,14 +2199,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,31 +2328,34 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2410,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2323,11 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2487,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2384,8 +2514,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2396,23 +2526,26 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2431,28 +2564,31 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2463,32 +2599,35 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -2507,11 +2646,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,23 +2854,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -2735,11 +2892,14 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,19 +3076,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E72" s="3">
         <v>200</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -2941,11 +3114,14 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,23 +3240,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -3093,11 +3278,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,66 +3322,72 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3212,11 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,16 +3428,17 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3260,8 +3458,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,20 +3672,23 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3494,11 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,31 +3732,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3548,11 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,19 +3853,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3662,11 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,22 +4075,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
+      <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3868,34 +4113,37 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3909,22 +4157,25 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>200</v>
+      <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3944,7 +4195,10 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,98 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>400</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -768,19 +776,25 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -797,32 +811,38 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,20 +858,26 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,20 +983,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,11 +1015,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,20 +1097,22 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1083,31 +1137,37 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>300</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1124,11 +1184,17 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,13 +1210,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1182,32 +1250,38 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1217,28 +1291,34 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1252,11 +1332,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,8 +1347,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,19 +1362,19 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1305,11 +1391,17 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,17 +1409,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,29 +1488,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1428,32 +1532,38 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1469,11 +1579,17 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1770,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1674,32 +1814,38 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1715,11 +1861,17 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,29 +1911,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1797,57 +1955,69 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +2052,31 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1918,11 +2092,17 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,26 +2142,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,11 +2177,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,16 +2236,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2082,32 +2280,38 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2123,11 +2327,17 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,25 +2377,31 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2202,14 +2418,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,37 +2565,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2659,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2451,11 +2703,17 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,40 +2748,42 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2529,31 +2791,37 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2567,34 +2835,40 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2602,38 +2876,44 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -2649,11 +2929,17 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3167,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -2895,11 +3211,17 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,26 +3421,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
@@ -3117,11 +3465,17 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3609,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
@@ -3281,11 +3653,17 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,75 +3703,87 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3409,11 +3799,17 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,22 +3825,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,26 +4103,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3713,11 +4147,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,19 +4173,21 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3759,11 +4201,11 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3771,11 +4213,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,25 +4310,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3894,11 +4354,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4564,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4116,22 +4608,28 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4145,11 +4643,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4160,29 +4658,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4198,7 +4702,13 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,23 +748,23 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +803,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -817,8 +824,8 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -826,11 +833,14 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,14 +848,14 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,8 +874,8 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -873,11 +883,14 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,12 +1020,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1041,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,23 +1125,24 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1143,11 +1170,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,23 +1185,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1190,11 +1220,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1256,11 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,23 +1305,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -1297,8 +1334,8 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1360,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,23 +1405,23 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1397,16 +1440,19 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1415,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,23 +1555,23 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1538,11 +1590,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,23 +1605,23 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1585,11 +1640,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1820,11 +1890,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,23 +1905,23 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1867,11 +1940,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,23 +2005,23 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1961,63 +2040,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,32 +2140,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2098,11 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,29 +2238,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,19 +2338,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2286,35 +2385,38 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2333,11 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,19 +2500,19 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2424,14 +2532,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,14 +2717,14 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,32 +2788,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2709,11 +2835,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2764,8 +2895,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2773,11 +2904,11 @@
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2785,8 +2916,8 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,8 +2945,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2823,8 +2957,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2841,37 +2975,40 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1000</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2882,41 +3019,44 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -2935,16 +3075,19 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,32 +3328,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
@@ -3217,11 +3375,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,28 +3598,31 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>200</v>
       </c>
       <c r="H72" s="3">
         <v>200</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -3471,11 +3645,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,32 +3798,35 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
@@ -3659,11 +3845,14 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,23 +3965,23 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3805,11 +4000,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3841,11 +4040,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,20 +4335,20 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4153,11 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,11 +4407,11 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -4207,8 +4428,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,11 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4327,17 +4557,17 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4360,11 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +4813,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4614,11 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4631,8 +4880,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4649,8 +4898,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4664,31 +4913,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4708,7 +4960,10 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,23 +754,23 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,14 +806,14 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -827,8 +833,8 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -836,11 +842,14 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,15 +859,15 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -877,8 +886,8 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -886,11 +895,14 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1023,12 +1042,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1063,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,26 +1151,27 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1173,11 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,26 +1214,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1223,11 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1293,11 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,23 +1344,23 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1337,8 +1373,8 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,8 +1402,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1381,8 +1420,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,23 +1450,23 @@
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1443,19 +1485,22 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1464,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1558,23 +1609,23 @@
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1593,11 +1644,14 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1608,23 +1662,23 @@
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1643,11 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1893,11 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,23 +1980,23 @@
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1943,11 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,23 +2086,23 @@
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2043,66 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,35 +2226,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2188,11 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,32 +2330,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2371,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,22 +2436,25 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2388,11 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,26 +2501,26 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2438,11 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,19 +2610,19 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2535,14 +2642,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2720,14 +2839,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2800,26 +2925,26 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2838,11 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2898,8 +3028,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2907,11 +3037,11 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2919,8 +3049,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,8 +3081,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2960,8 +3093,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2978,40 +3111,43 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3022,44 +3158,47 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3078,11 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,7 +3232,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,35 +3485,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -3378,11 +3535,14 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,31 +3771,34 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>200</v>
       </c>
       <c r="I72" s="3">
         <v>200</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -3648,11 +3821,14 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,35 +3983,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
@@ -3848,11 +4033,14 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3968,23 +4162,23 @@
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4003,11 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4043,11 +4241,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4067,8 +4265,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,32 +4539,35 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4373,11 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,11 +4630,11 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -4431,8 +4651,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4443,11 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4560,17 +4789,17 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4593,11 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,34 +5058,37 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>400</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4863,11 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4883,8 +5131,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -4901,8 +5149,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4916,34 +5164,37 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
         <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4963,7 +5214,10 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,125 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -795,31 +803,37 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -836,44 +850,50 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,20 +909,26 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,32 +1062,38 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,11 +1106,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,32 +1204,34 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1202,11 +1256,17 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,31 +1274,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1255,11 +1315,17 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1329,11 +1397,17 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,32 +1415,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-1400</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1376,22 +1450,28 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1405,11 +1485,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1423,11 +1503,11 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,40 +1518,46 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1488,41 +1574,47 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1695,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1647,44 +1751,50 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1700,11 +1810,17 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1965,44 +2105,50 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2018,11 +2164,17 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2226,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2124,69 +2282,81 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2399,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2277,11 +2451,17 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,29 +2528,29 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2374,11 +2560,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,28 +2631,34 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2489,44 +2687,50 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2542,11 +2746,17 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,22 +2829,22 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2645,14 +2861,20 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,17 +3082,17 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3162,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2966,11 +3218,17 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3031,32 +3293,32 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3084,11 +3352,11 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -3096,11 +3364,11 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3114,46 +3382,52 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3161,50 +3435,56 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -3220,11 +3500,17 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,10 +3521,10 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3798,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -3538,11 +3854,17 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,38 +4116,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
@@ -3824,11 +4172,17 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4352,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
@@ -4036,11 +4408,17 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4470,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4200,11 +4590,17 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4244,14 +4642,14 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4268,17 +4666,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,38 +4970,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4592,11 +5026,17 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4633,14 +5075,14 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4654,11 +5096,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4666,11 +5108,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5229,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -4792,20 +5252,20 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4825,11 +5285,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5547,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>600</v>
@@ -5076,26 +5568,26 @@
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5111,11 +5603,17 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5134,11 +5632,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -5152,11 +5650,11 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5167,41 +5665,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5217,7 +5721,13 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -1211,8 +1211,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>1400</v>
@@ -1270,8 +1270,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-1400</v>
@@ -1352,8 +1352,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1411,8 +1411,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>-1400</v>
@@ -1470,8 +1470,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1529,8 +1529,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-1400</v>
@@ -1588,8 +1588,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-1400</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-1400</v>
@@ -2060,8 +2060,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-1400</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-1400</v>
@@ -3338,7 +3338,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -3397,7 +3397,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-1400</v>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,131 +671,146 @@
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -809,43 +824,55 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -856,56 +883,68 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,20 +954,32 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +1001,12 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1064,20 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1135,91 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>1800</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1277,20 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,44 +1309,48 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1262,56 +1369,68 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1321,11 +1440,23 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,32 +1478,36 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1403,75 +1538,99 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
       <c r="H21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1491,17 +1650,17 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1509,68 +1668,80 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1580,11 +1751,23 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,11 +1777,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1606,27 +1789,27 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1825,20 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,53 +1896,65 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1757,11 +1964,23 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,44 +1988,44 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1816,11 +2035,23 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +2109,20 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2180,20 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2251,20 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,32 +2322,44 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2111,11 +2390,23 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,44 +2414,44 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2170,11 +2461,23 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2535,20 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,44 +2556,44 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2288,75 +2603,99 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2717,12 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2744,12 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,44 +2757,44 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2457,11 +2804,23 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,31 +2878,43 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2551,58 +2922,70 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2637,41 +3020,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2693,31 +3088,43 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
@@ -2726,23 +3133,23 @@
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2752,11 +3159,23 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2814,49 +3233,61 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2867,37 +3298,49 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2932,8 +3375,20 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3446,20 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3517,20 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3064,17 +3543,17 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3088,11 +3567,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3100,17 +3579,29 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3659,65 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
       </c>
       <c r="J54" s="3">
         <v>900</v>
       </c>
       <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3224,11 +3727,23 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3765,12 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,13 +3792,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3288,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3299,14 +3822,14 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3323,64 +3846,76 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3388,61 +3923,73 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
       </c>
       <c r="I59" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3450,53 +3997,65 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -3506,11 +4065,23 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3527,16 +4098,16 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3568,19 +4139,31 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3591,8 +4174,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3627,8 +4210,20 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +4281,20 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4352,20 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +4423,65 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
@@ -3860,11 +4491,23 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4529,12 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4592,20 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4663,20 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4734,20 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4805,62 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
@@ -4178,11 +4873,23 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4947,20 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +5018,20 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +5089,65 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>300</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
@@ -4414,11 +5157,23 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +5231,96 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,44 +5328,44 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4596,11 +5375,23 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5413,12 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,8 +5443,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4660,8 +5455,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4672,17 +5467,29 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5547,20 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5618,20 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5689,20 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5760,20 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5831,20 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,41 +5852,41 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5032,11 +5899,23 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5937,12 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,11 +5952,11 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -5081,8 +5964,8 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -5093,8 +5976,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5102,23 +5985,35 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +6071,20 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,49 +6142,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5291,11 +6210,23 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +6248,12 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +6311,20 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +6382,20 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +6453,20 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,53 +6524,65 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5609,11 +6592,23 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5638,17 +6633,17 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5656,68 +6651,80 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5727,7 +6734,19 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -780,7 +780,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -922,10 +922,10 @@
         <v>-200</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>500</v>
       </c>
       <c r="I14" s="3">
         <v>1800</v>
@@ -1331,7 +1331,7 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
@@ -1399,10 +1399,10 @@
         <v>-2900</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="I18" s="3">
         <v>-900</v>
@@ -1497,10 +1497,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>-400</v>
       </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="I21" s="3">
         <v>-900</v>
@@ -1713,7 +1713,7 @@
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
@@ -1926,7 +1926,7 @@
         <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
@@ -1997,7 +1997,7 @@
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
         <v>-900</v>
@@ -2349,10 +2349,10 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="I33" s="3">
         <v>-900</v>
@@ -2565,7 +2565,7 @@
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="I35" s="3">
         <v>-900</v>
@@ -2763,7 +2763,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2975,11 +2975,11 @@
       <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -3047,10 +3047,10 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -3118,10 +3118,10 @@
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
       </c>
       <c r="I46" s="3">
         <v>1000</v>
@@ -3188,11 +3188,11 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3260,10 +3260,10 @@
         <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3543,11 +3543,11 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -3686,10 +3686,10 @@
         <v>1500</v>
       </c>
       <c r="G54" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I54" s="3">
         <v>1300</v>
@@ -3953,10 +3953,10 @@
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -4024,10 +4024,10 @@
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
@@ -4166,10 +4166,10 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4450,10 +4450,10 @@
         <v>1500</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
@@ -4832,7 +4832,7 @@
         <v>-3900</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="H72" s="3">
         <v>-3000</v>
@@ -5116,10 +5116,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I76" s="3">
         <v>300</v>
@@ -5337,7 +5337,7 @@
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="I81" s="3">
         <v>-900</v>
@@ -5858,10 +5858,10 @@
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
@@ -5956,7 +5956,7 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -6169,10 +6169,10 @@
         <v>-400</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -6551,10 +6551,10 @@
         <v>900</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -795,26 +799,26 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -895,8 +902,8 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -904,11 +911,14 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,35 +929,35 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +976,8 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -975,11 +985,14 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,22 +1179,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1182,12 +1202,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1223,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,38 +1349,38 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1381,11 +1408,14 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,47 +1423,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-900</v>
       </c>
       <c r="I18" s="3">
         <v>-900</v>
       </c>
       <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1452,11 +1482,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,26 +1525,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1550,11 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,22 +1599,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-900</v>
       </c>
       <c r="I21" s="3">
         <v>-900</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
@@ -1586,23 +1623,23 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
@@ -1615,8 +1652,8 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
+      <c r="W21" s="3">
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
@@ -1624,16 +1661,19 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1662,8 +1702,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1680,8 +1720,8 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1695,8 +1735,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,47 +1747,47 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1763,11 +1806,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,14 +1835,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1805,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,47 +1969,47 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1976,11 +2028,14 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,47 +2043,47 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-900</v>
       </c>
       <c r="I27" s="3">
         <v>-900</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -2047,11 +2102,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,26 +2413,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2402,11 +2472,14 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,47 +2487,47 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-900</v>
       </c>
       <c r="I33" s="3">
         <v>-900</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2473,11 +2546,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,47 +2635,47 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-900</v>
       </c>
       <c r="I35" s="3">
         <v>-900</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2615,87 +2694,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,47 +2844,47 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2816,11 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2910,33 +3003,33 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2949,8 +3042,8 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2961,16 +3054,19 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2979,16 +3075,16 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3032,13 +3128,16 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -3047,28 +3146,28 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3100,59 +3199,62 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>600</v>
       </c>
       <c r="P46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3171,11 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -3195,13 +3300,13 @@
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,19 +3362,19 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3278,19 +3386,19 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3310,22 +3418,25 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -3342,8 +3453,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3549,14 +3669,14 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3579,14 +3699,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,56 +3794,59 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>900</v>
       </c>
       <c r="L54" s="3">
+        <v>900</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3739,11 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,17 +3936,17 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3834,8 +3965,8 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3843,11 +3974,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3855,8 +3986,8 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3887,12 +4021,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3905,8 +4039,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3917,8 +4051,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3935,61 +4069,64 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -4000,65 +4137,68 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
@@ -4077,11 +4217,14 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4110,7 +4253,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,7 +4306,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -4169,16 +4315,16 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,56 +4590,59 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
@@ -4503,11 +4661,14 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,52 +4988,55 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>200</v>
       </c>
       <c r="P72" s="3">
         <v>200</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -4885,11 +5059,14 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,56 +5284,59 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>400</v>
       </c>
       <c r="I76" s="3">
+        <v>400</v>
+      </c>
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
@@ -5169,11 +5355,14 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,47 +5523,47 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-900</v>
       </c>
       <c r="I81" s="3">
         <v>-900</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -5387,11 +5582,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5455,11 +5654,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5479,8 +5678,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,53 +6057,56 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5911,11 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,25 +6161,26 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>-200</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -5976,11 +6197,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -5997,8 +6218,8 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6009,11 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,31 +6381,34 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -6189,17 +6419,17 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6222,11 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,55 +6779,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6604,11 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6645,8 +6894,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -6663,8 +6912,8 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6678,55 +6927,58 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q102" s="3">
         <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6746,7 +6998,10 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,119 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,52 +785,52 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -843,13 +850,19 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -858,37 +871,37 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -905,20 +918,26 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,44 +945,44 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -979,20 +998,26 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,38 +1221,38 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1241,8 +1280,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,53 +1391,55 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1411,11 +1464,17 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,49 +1485,49 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>300</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1485,11 +1544,17 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,32 +1592,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1587,11 +1654,17 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,53 +1672,53 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3">
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
@@ -1655,31 +1728,37 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1705,11 +1784,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1723,11 +1802,11 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1738,8 +1817,14 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,52 +1832,52 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>200</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1809,11 +1894,17 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1838,33 +1929,33 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,62 +2057,68 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -2031,65 +2134,71 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2105,11 +2214,17 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,31 +2297,37 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,32 +2552,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2475,65 +2614,71 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2549,11 +2694,17 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,62 +2777,68 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2697,90 +2854,102 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,62 +3006,64 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+      <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2906,11 +3079,17 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3162,14 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3006,36 +3191,36 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,11 +3230,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3057,40 +3242,46 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G44" s="3">
         <v>1300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3131,49 +3322,55 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3202,65 +3399,71 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3276,16 +3479,22 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3294,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3353,34 +3562,40 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3389,22 +3604,22 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3421,14 +3636,20 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3438,11 +3659,11 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -3456,11 +3677,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3672,17 +3911,17 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3702,17 +3941,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3723,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,62 +4042,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1500</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3868,11 +4119,17 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,32 +4186,34 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3968,32 +4229,32 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4001,38 +4262,44 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4042,11 +4309,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -4054,11 +4321,11 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4072,67 +4339,73 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
@@ -4140,71 +4413,77 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
@@ -4220,11 +4499,17 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4256,10 +4541,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4297,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4309,28 +4600,28 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4371,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,62 +4902,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
       <c r="U66" s="3">
         <v>0</v>
       </c>
@@ -4664,11 +4979,17 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,59 +5332,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>200</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
@@ -5062,11 +5409,17 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,62 +5652,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
@@ -5358,11 +5729,17 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,141 +5812,153 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5585,11 +5974,17 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5657,14 +6054,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5681,17 +6078,23 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,59 +6487,65 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -6131,11 +6564,17 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,32 +6601,34 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6200,14 +6641,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -6221,11 +6662,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6233,11 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,37 +6837,43 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -6422,20 +6881,20 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6455,11 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,34 +7267,40 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>600</v>
@@ -6818,26 +7309,26 @@
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6853,11 +7344,17 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6897,11 +7394,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -6915,11 +7412,11 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6930,62 +7427,68 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-400</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7001,7 +7504,13 @@
       <c r="Y102" s="3">
         <v>0</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>VIVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,11 +789,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -797,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -815,26 +819,26 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -856,17 +860,20 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -877,34 +884,34 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -924,8 +931,8 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -933,11 +940,14 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,11 +955,11 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -957,35 +967,35 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1014,8 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -1013,11 +1023,14 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1250,12 +1270,12 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1271,8 +1291,8 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,56 +1419,57 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1470,11 +1497,14 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1491,47 +1521,47 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-900</v>
       </c>
       <c r="L18" s="3">
         <v>-900</v>
       </c>
       <c r="M18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1550,11 +1580,14 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,35 +1626,35 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1660,11 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,28 +1712,28 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-900</v>
       </c>
       <c r="L21" s="3">
         <v>-900</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
@@ -1705,23 +1742,23 @@
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
@@ -1734,8 +1771,8 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,8 +1797,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1790,8 +1830,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1808,8 +1848,8 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1823,65 +1863,68 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-900</v>
       </c>
       <c r="M23" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1900,11 +1943,14 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,14 +1981,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1951,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,65 +2112,68 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-900</v>
       </c>
       <c r="M26" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2140,68 +2192,71 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-900</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2220,11 +2275,14 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,34 +2361,37 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>-300</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,35 +2622,35 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2620,68 +2690,71 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-900</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2700,11 +2773,14 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,65 +2859,68 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-900</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2860,96 +2939,102 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,16 +3094,17 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3026,47 +3113,47 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -3085,11 +3172,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,13 +3258,16 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3197,33 +3290,33 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3236,8 +3329,8 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3248,25 +3341,28 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1500</v>
       </c>
       <c r="F44" s="3">
         <v>1500</v>
       </c>
       <c r="G44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H44" s="3">
         <v>1300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -3275,16 +3371,16 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3328,22 +3424,25 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
-        <v>700</v>
-      </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -3352,28 +3451,28 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3405,68 +3504,71 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="E46" s="3">
         <v>2400</v>
       </c>
       <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3485,19 +3587,22 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3509,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -3518,13 +3623,13 @@
         <v>100</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3568,37 +3673,40 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
-        <v>700</v>
-      </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>800</v>
       </c>
       <c r="J48" s="3">
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3610,19 +3718,19 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3642,14 +3750,17 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>3</v>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3665,8 +3776,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -3683,8 +3794,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,19 +4005,22 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3917,14 +4037,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3947,14 +4067,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,65 +4171,68 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3200</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="3">
         <v>3200</v>
       </c>
       <c r="F54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>900</v>
       </c>
       <c r="N54" s="3">
         <v>900</v>
       </c>
       <c r="O54" s="3">
+        <v>900</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -4125,11 +4251,14 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,35 +4318,36 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -4235,8 +4366,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -4244,11 +4375,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -4256,8 +4387,8 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4294,15 +4428,15 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4315,8 +4449,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -4327,8 +4461,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4345,70 +4479,73 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
-        <v>3100</v>
-      </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
@@ -4419,74 +4556,77 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
-        <v>3900</v>
-      </c>
       <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
@@ -4505,16 +4645,19 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4547,7 +4690,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4588,25 +4731,28 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4615,16 +4761,16 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,65 +5063,68 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
@@ -4985,11 +5143,14 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5509,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,52 +5521,52 @@
         <v>-5100</v>
       </c>
       <c r="E72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>200</v>
       </c>
       <c r="S72" s="3">
         <v>200</v>
       </c>
       <c r="T72" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -5415,11 +5589,14 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,65 +5841,68 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>400</v>
       </c>
       <c r="L76" s="3">
+        <v>400</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
@@ -5735,11 +5921,14 @@
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,150 +6007,156 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-900</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5980,11 +6175,14 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6060,11 +6259,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -6084,8 +6283,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,62 +6707,65 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6570,11 +6787,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6615,7 +6836,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6627,11 +6848,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6647,11 +6868,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -6668,8 +6889,8 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6680,11 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,40 +7070,43 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -6887,17 +7117,17 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6920,11 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,64 +7516,67 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7350,11 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7400,8 +7649,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -7418,8 +7667,8 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7433,64 +7682,67 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
-        <v>200</v>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T102" s="3">
         <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7510,7 +7762,10 @@
       <c r="AA102" s="3">
         <v>0</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
